--- a/lab_0514.xlsx
+++ b/lab_0514.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="实验1" sheetId="1" r:id="rId1"/>
     <sheet name="实验2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>准确率
 (accuracy)</t>
@@ -241,6 +242,35 @@
     <t>units=[n_time_steps*2,n_time_steps]
 dropout=0.4
 activation=relu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n = 12
+n_d = 5
+n_w = 5
+只有事故特征
+正样本比例= 5%，设置了class_weight=1:19</t>
+    <rPh sb="23" eb="24">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>te'z</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zheng'yang'b</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bi'li</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>she'zhi'l</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1115,7 +1151,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1133,7 +1169,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1147,7 +1183,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1197,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1177,7 +1213,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1227,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1251,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1243,4 +1279,212 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="8">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab_0514.xlsx
+++ b/lab_0514.xlsx
@@ -9,12 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="实验1" sheetId="1" r:id="rId1"/>
     <sheet name="实验2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="0625" sheetId="4" r:id="rId4"/>
+    <sheet name="0627_dim9" sheetId="5" r:id="rId5"/>
+    <sheet name="0627_dim13" sheetId="6" r:id="rId6"/>
+    <sheet name="0627_dim5" sheetId="7" r:id="rId7"/>
+    <sheet name="0628_dim5_1255" sheetId="8" r:id="rId8"/>
+    <sheet name="0628_dim6" sheetId="9" r:id="rId9"/>
+    <sheet name="dim6_1255" sheetId="10" r:id="rId10"/>
+    <sheet name="dim2" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="54">
   <si>
     <t>准确率
 (accuracy)</t>
@@ -273,13 +281,408 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>n = 12
+n_d = 5
+n_w = 5
+只有当前点事故数据
+正负样本比例=1：1</t>
+    <rPh sb="23" eb="24">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均方误差(Mean Squared Error, MSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均方根误差(Root Mean Squared Error, RMSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均绝对误差(Mean Absolute Error, MAE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_depth=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criterion='entropy'
+n_estimators=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_estimators=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 4
+n_d = 3
+n_w = 3
+周围3*3的事故数据
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhou'w</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 4
+n_d = 3
+n_w = 3
+周围3*3的事故数据+天气，pm2.5，时间段，是否周末
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhou'w</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 4
+n_d = 3
+n_w = 3
+当前点事故数据+天气，pm2.5，时间段，是否周末
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层LSTM</t>
+    <rPh sb="0" eb="1">
+      <t>shuang'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 12
+n_d = 5
+n_w = 5
+当前点事故数据+天气，pm2.5，时间段，是否周末
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 12
+n_d = 5
+n_w = 5
+当前点事故数据+当前点的出租车相对速度+天气，pm2.5，时间段，是否周末
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>de</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>chu'zu'c</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xiang'd</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 4
+n_d = 3
+n_w = 3
+当前点事故数据+当前点的出租车相对速度+天气，pm2.5，时间段，是否周末
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>de</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>chu'zu'c</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xiang'd</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相关性结果：
+n = 12
+n_d = 5
+n_w = 5
+当前点事故数据+当前点的出租车相对速度
+正负样本比例=1：1</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shi'gu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>s'ju</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dang'q</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>de</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>chu'zu'c</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xiang'd</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>su'd</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>zheng'fu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -370,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,6 +805,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,9 +823,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -737,7 +1150,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -755,7 +1168,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -779,7 +1192,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -803,7 +1216,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -825,7 +1238,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -849,7 +1262,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -873,7 +1286,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -897,7 +1310,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
@@ -921,7 +1334,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -945,7 +1358,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1101,6 +1514,532 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.48853867793099998</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.45493132657200003</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.66573483400699995</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.47833458691300001</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.431163656068</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.63801338641000005</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.44080736617400001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.44080736617400001</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.66240310645599998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.46857778158500002</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.2879944183</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.51609601474699995</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.46517331131900003</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.39993087580100001</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.63135239440699997</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.44176618815899998</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.41265272297400002</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.63655796616000004</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.48756478211499998</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.432282823032</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.656354750486</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.36171943768300002</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.35713549829199998</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.58817982307299999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.51552619562900004</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.51552619562900004</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.71584905775300001</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.429236180375</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.25488936959800002</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.498820894623</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.42729269946699999</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.25093746877899997</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.49518777899999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.318531080779</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.29216717284499999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.53542468299400003</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.49756212650600001</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.247625149091</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.497615481641</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.42921875023799999</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.27598613837500002</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.51428721628499996</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.42830241486800003</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.29886176074699999</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.53951133931700002</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.42811601361000001</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.26518697877500003</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.50545390086700004</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.44020034371400002</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.317532382655</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.55628516403100003</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.379326122968</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.379326122968</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.60633757047199999</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,7 +2090,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1169,7 +2108,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +2122,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +2136,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +2152,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +2166,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +2190,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1285,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1325,7 +2264,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +2278,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1357,7 +2296,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +2310,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +2324,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +2336,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +2350,7 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +2364,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +2378,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1453,7 +2392,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +2406,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1479,6 +2418,1708 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17">
+        <v>0.43762779143399999</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.23276654622599999</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.482458854439</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.43428794740499999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.220633203582</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.46971608827299999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.430141564496</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.21384357092699999</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.462388254</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.44042602132999997</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.21581010769699999</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.46452350416400001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.34342374721800001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.321198353544</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.56660256204100001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.49922501736399999</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.24923124439200001</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.49923064989900001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.41930327383400001</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.21994650209399999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.46892715961699999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.42112246710200002</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.21157417918300001</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.45990533488300001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.419653346968</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.22602000557999999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.47536343635900002</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.43798313929499999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.21981935336</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.46880678376099999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.33490261188300002</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.33490261188300002</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.57854396736699998</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17">
+        <v>0.47550362591899997</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.246649680032</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.49663837954000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.46301925914399999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.24298046957</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.492930491621</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.46248563114800001</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.23143172286200001</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.48100386292000002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.46420944858699997</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.23158597221400001</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.48117235092100002</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.38898204024600003</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.37940325254899998</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.61560570383199997</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.49925291234000002</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.24926187502700001</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.499261313481</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.44741271541799998</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.23463398215100001</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.48430497762899999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.454904344992</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.23016114309800001</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.47964108976699998</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.44745504416499998</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.23669481441500001</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.48643451838500001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.478886164635</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.24089870669999999</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.49079122326699998</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.39006353754200002</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.39006353754200002</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.62429123229100003</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17">
+        <v>0.38567775042500002</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.185296024749</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.430460247583</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.37757682004199999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.18493736827599999</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.43004344928799998</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.39590725107199998</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.226356706193</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.46887352930600001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.39241540449899998</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.21502526964099999</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.46020586275999997</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.37955227153299997</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.37278318191100002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.60578201011300004</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.46517704436200003</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.23208800754600001</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.481334199593</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.48556431163000002</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.45209875734600002</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.67041427381499996</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.43707590536800001</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.40596842192100002</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.63518603675499996</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.49585796643300001</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.46321793630399999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.67952166197700004</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.36660556593400001</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.33859947185200001</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.57508591054299996</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.342476886822</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.342476886822</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.57890343868500005</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17">
+        <v>0.33050553405299998</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.166489821865</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.40803164321500002</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.344653865191</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.16217599748799999</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.40271081123800001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.35981335342800003</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.17268452163</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.41555327171200002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.37555438412499997</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.214221538159</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.45552216219800001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.37377709591300001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.20253608276599999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.44658451616900002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="17">
+        <v>0.42500153082999997</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.42201556770999998</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.64840398728299997</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.46768900625799997</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.23369561711199999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.48296839993899998</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.48652359817700003</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.45682882172200001</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.67417426639800004</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.41701900851500001</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.38542997593299999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.61776431912200003</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.49501237199699999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.46158941470999998</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.67821019446599995</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.34429480793799999</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.31652151893199998</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.55756474798300004</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.31598903342700002</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.31598903342700002</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.55486241017600002</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17">
+        <v>0.34817232997000003</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.17923641166199999</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.42336321481900002</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.36856236904299999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.18072949807200001</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.42512292113200001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.37212380684700003</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.21606215976699999</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.45773442302599998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.36695056654300001</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.20121162797600001</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.44573725549400001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.37426410108399999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.37175395058900002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.60685076408899996</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.46895826551499997</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.244866019405</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.49334662529899997</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.479111753646</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.45094225168699997</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.66936678879699996</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.432224946587</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.40249706804599999</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.63095822191499995</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.49330593992600003</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.46076817766400002</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.67762192820900002</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.34806572132800001</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.32355959895300002</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.56139322321700003</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.33601056746899999</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.33601056746899999</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.57485210601100001</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="17">
+        <v>0.25866797945879999</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.19444891475850001</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.41555665050879997</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.25504801841051999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.21788079374361999</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.42563167517079997</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.381087683432</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.32850176800999997</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.52292784599300002</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.366881773593</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.30509217903000002</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.48970992337500002</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17">
+        <v>0.25489244653100002</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.25489244653100002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.35482975126799998</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.45412955850699999</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.27880677619299998</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.50297434481000003</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.47710246312499999</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.41617879407500002</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.64456770622799997</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.44402214094199999</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.41480872213499997</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.63619371005799996</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.48085097407600003</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.42425296721400002</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.65085929874699999</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.47042803322799998</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.46610200619199998</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.67919069915200003</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.30035521975899998</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.30035521975899998</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.48817806009600001</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
